--- a/Data/Output Files/FinalOutput.xlsx
+++ b/Data/Output Files/FinalOutput.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UiPath\Spectrum Task\Spectrum-Task-Document-Understanding\Data\Output Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F40C858-4967-4995-A4B1-A8AC9DCD9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Certificate-of-Filing" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Invoice" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Invoice Table" sheetId="7" r:id="rId7"/>
-    <x:sheet name="FormW-9" sheetId="8" r:id="rId8"/>
-    <x:sheet name="Receipt" sheetId="9" r:id="rId9"/>
-    <x:sheet name="Receipt Table" sheetId="10" r:id="rId10"/>
+    <x:sheet name="Certificate-of-Filing" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Invoice" sheetId="5" r:id="rId2"/>
+    <x:sheet name="Invoice Table" sheetId="7" r:id="rId3"/>
+    <x:sheet name="FormW-9" sheetId="8" r:id="rId4"/>
+    <x:sheet name="Receipt" sheetId="9" r:id="rId5"/>
+    <x:sheet name="Receipt Table" sheetId="10" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
@@ -294,13 +301,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -316,38 +322,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -643,9 +643,14 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="12" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710938" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -656,7 +661,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -677,17 +682,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:O2"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView topLeftCell="C1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="33.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="18.285156" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="18.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="7" width="10.425781" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="11.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="14.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="16" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="11.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="11.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="14" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="12.710938" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:15">
+    <x:row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -734,7 +754,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:15">
+    <x:row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -785,17 +805,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:D4"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="E4" sqref="E4"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="32.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="12.285156" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -809,7 +837,7 @@
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -823,7 +851,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4">
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -837,7 +865,7 @@
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4">
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -861,7 +889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -869,9 +897,16 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="6" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.285156" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -894,7 +929,7 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -924,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0400-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -932,9 +967,18 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="15.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="45" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="11.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="10.710938" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.140625" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -957,7 +1001,7 @@
         <x:v>62</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
@@ -990,17 +1034,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0500-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:C12"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C16" sqref="C16"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="49.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="8.710938" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="12.285156" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -1011,7 +1062,7 @@
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -1022,7 +1073,7 @@
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
@@ -1033,7 +1084,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -1044,7 +1095,7 @@
         <x:v>76</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
@@ -1055,7 +1106,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3">
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -1066,7 +1117,7 @@
         <x:v>80</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:3">
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
@@ -1077,7 +1128,7 @@
         <x:v>80</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:3">
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -1088,7 +1139,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:3">
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -1099,7 +1150,7 @@
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:3">
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -1110,7 +1161,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:3">
+    <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
@@ -1121,7 +1172,7 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:3">
+    <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
